--- a/Clean-800.xlsx
+++ b/Clean-800.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.571989197002359E-07</v>
+        <v>1.144486735948038E-07</v>
       </c>
       <c r="D2">
-        <v>9.006834642839451E-06</v>
+        <v>6.557425967852605E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>1.29930397250567E-07</v>
+        <v>9.480306454415728E-08</v>
       </c>
       <c r="D3">
-        <v>7.444463392915686E-06</v>
+        <v>5.431815483286548E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>1.036150252483491E-07</v>
+        <v>7.582684359400837E-08</v>
       </c>
       <c r="D4">
-        <v>5.93670364087187E-06</v>
+        <v>4.344558111735282E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>6.599129644599129E-08</v>
+        <v>4.865211561982832E-08</v>
       </c>
       <c r="D5">
-        <v>3.78102277095197E-06</v>
+        <v>2.787560889398672E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>1.378667259508185E-08</v>
+        <v>1.085679537577203E-08</v>
       </c>
       <c r="D6">
-        <v>7.899181532268642E-07</v>
+        <v>6.220485540688861E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-5.462132284710444E-08</v>
+        <v>-3.884762770186212E-08</v>
       </c>
       <c r="D7">
-        <v>-3.129571270560582E-06</v>
+        <v>-2.225805111412201E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-1.32867885480135E-07</v>
+        <v>-9.610827353634345E-08</v>
       </c>
       <c r="D8">
-        <v>-7.612769070839289E-06</v>
+        <v>-5.506598449921339E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-1.815740601995809E-07</v>
+        <v>-1.322977461203122E-07</v>
       </c>
       <c r="D9">
-        <v>-1.040342731849032E-05</v>
+        <v>-7.580102491787151E-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-1.983533329077188E-07</v>
+        <v>-1.454660888127336E-07</v>
       </c>
       <c r="D10">
-        <v>-1.136480882796567E-05</v>
+        <v>-8.334592951244833E-06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-1.80557255033474E-07</v>
+        <v>-1.335469296515589E-07</v>
       </c>
       <c r="D11">
-        <v>-1.03451686738853E-05</v>
+        <v>-7.651675435964832E-06</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-1.253429795515688E-07</v>
+        <v>-9.41110593704296E-08</v>
       </c>
       <c r="D12">
-        <v>-7.181623719899475E-06</v>
+        <v>-5.392166507430734E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-2.938334142926075E-08</v>
+        <v>-2.42907900922535E-08</v>
       </c>
       <c r="D13">
-        <v>-1.683541451888541E-06</v>
+        <v>-1.391759753324321E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>1.118805136013888E-07</v>
+        <v>8.001943943049261E-08</v>
       </c>
       <c r="D14">
-        <v>6.410281239115582E-06</v>
+        <v>4.584776158369951E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>3.202973526080823E-07</v>
+        <v>2.400615831245432E-07</v>
       </c>
       <c r="D15">
-        <v>1.835168649365666E-05</v>
+        <v>1.375451553626531E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>5.921791987287695E-07</v>
+        <v>4.528708925899926E-07</v>
       </c>
       <c r="D16">
-        <v>3.392936880259734E-05</v>
+        <v>2.5947590809729E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>6.298193195690199E-06</v>
+        <v>6.171861068842224E-06</v>
       </c>
       <c r="D17">
-        <v>0.000360859888671061</v>
+        <v>0.0003536215909857607</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.774626079510113E-05</v>
+        <v>1.779591013096834E-05</v>
       </c>
       <c r="D18">
-        <v>0.001016785845697772</v>
+        <v>0.00101963054309859</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>3.134219108221793E-05</v>
+        <v>3.167445831559531E-05</v>
       </c>
       <c r="D19">
-        <v>0.001795775269703654</v>
+        <v>0.001814812779846666</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>5.427520244054339E-05</v>
+        <v>5.52716071685088E-05</v>
       </c>
       <c r="D20">
-        <v>0.003109740032061282</v>
+        <v>0.00316682981766058</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>9.368548641682439E-05</v>
+        <v>9.639796389745471E-05</v>
       </c>
       <c r="D21">
-        <v>0.005367782973314239</v>
+        <v>0.005523196484978635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>0.0001705964107115154</v>
+      </c>
+      <c r="D22">
+        <v>0.009774454333850224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>0.0002776939376709264</v>
+      </c>
+      <c r="D23">
+        <v>0.01591069062491303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>0.0004055960467940285</v>
+      </c>
+      <c r="D24">
+        <v>0.02323894166848848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>0.0005544449976040942</v>
+      </c>
+      <c r="D25">
+        <v>0.03176735833485564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>0.0007235634313933824</v>
+      </c>
+      <c r="D26">
+        <v>0.0414571308288445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>0.0007688891884131495</v>
+      </c>
+      <c r="D27">
+        <v>0.04405410540931262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>0.0008390782558329304</v>
+      </c>
+      <c r="D28">
+        <v>0.04807564274042526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>0.0009492304544521082</v>
+      </c>
+      <c r="D29">
+        <v>0.05438689882539093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>0.0009985931509837432</v>
+      </c>
+      <c r="D30">
+        <v>0.05721517300203868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>0.001075954186521025</v>
+      </c>
+      <c r="D31">
+        <v>0.06164763383708649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>0.001199289365387374</v>
+      </c>
+      <c r="D32">
+        <v>0.06871421905161938</v>
       </c>
     </row>
   </sheetData>
